--- a/tests/test_data/dualDetections/output/core/sites.xlsx
+++ b/tests/test_data/dualDetections/output/core/sites.xlsx
@@ -140,64 +140,64 @@
     <t xml:space="preserve">GCA_009914755.4</t>
   </si>
   <si>
+    <t xml:space="preserve">chr10+16382923.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AATTAGCCCTTCCA/GAAAATCTCTAGCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dual detect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HXB2.fasta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr7-2200464.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chrX-114582609.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr22+23096325.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1+170324370.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr11+86289905.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr14+62440337.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr14+77674134.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr15+24675521.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2+59543046.0</t>
+  </si>
+  <si>
     <t xml:space="preserve">chr21-23870691.0</t>
   </si>
   <si>
-    <t xml:space="preserve">AATTAGCCCTTCCA/GAAAATCTCTAGCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dual detect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HXB2.fasta</t>
+    <t xml:space="preserve">chr21-40431359.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr4-139295962.0</t>
   </si>
   <si>
     <t xml:space="preserve">chr1-68106285.0</t>
   </si>
   <si>
-    <t xml:space="preserve">chr10+16382923.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr11+86289905.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr14+62440337.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr15+24675521.0</t>
+    <t xml:space="preserve">chr10+104609647.0</t>
   </si>
   <si>
     <t xml:space="preserve">chr18-42275245.0</t>
   </si>
   <si>
-    <t xml:space="preserve">chr21-40431367.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr1+170324370.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr22+23096325.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr10+104609647.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr14+77674134.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr2+59543046.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr4-139295962.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr7-2200456.0</t>
-  </si>
-  <si>
     <t xml:space="preserve">chr9+4426915.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chrX-114582617.0</t>
   </si>
   <si>
     <t xml:space="preserve">chr7-51064946.1</t>
@@ -673,7 +673,7 @@
       <c r="F2"/>
       <c r="G2"/>
       <c r="H2" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I2" t="n">
         <v>150</v>
@@ -697,7 +697,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="Q2" t="n">
         <v>150</v>
@@ -745,7 +745,7 @@
       <c r="F3"/>
       <c r="G3"/>
       <c r="H3" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I3" t="n">
         <v>150</v>
@@ -769,7 +769,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="Q3" t="n">
         <v>150</v>
@@ -817,7 +817,7 @@
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I4" t="n">
         <v>150</v>
@@ -841,7 +841,7 @@
         <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="Q4" t="n">
         <v>150</v>
@@ -889,7 +889,7 @@
       <c r="F5"/>
       <c r="G5"/>
       <c r="H5" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I5" t="n">
         <v>150</v>
@@ -913,7 +913,7 @@
         <v>1</v>
       </c>
       <c r="P5" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="Q5" t="n">
         <v>150</v>
@@ -961,7 +961,7 @@
       <c r="F6"/>
       <c r="G6"/>
       <c r="H6" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="I6" t="n">
         <v>150</v>
@@ -985,7 +985,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="Q6" t="n">
         <v>150</v>
@@ -1033,7 +1033,7 @@
       <c r="F7"/>
       <c r="G7"/>
       <c r="H7" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="I7" t="n">
         <v>150</v>
@@ -1057,7 +1057,7 @@
         <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="Q7" t="n">
         <v>150</v>
@@ -1105,7 +1105,7 @@
       <c r="F8"/>
       <c r="G8"/>
       <c r="H8" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="I8" t="n">
         <v>150</v>
@@ -1129,7 +1129,7 @@
         <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="Q8" t="n">
         <v>150</v>
@@ -1177,7 +1177,7 @@
       <c r="F9"/>
       <c r="G9"/>
       <c r="H9" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="I9" t="n">
         <v>150</v>
@@ -1201,7 +1201,7 @@
         <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="Q9" t="n">
         <v>150</v>
@@ -1249,7 +1249,7 @@
       <c r="F10"/>
       <c r="G10"/>
       <c r="H10" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I10" t="n">
         <v>150</v>
@@ -1273,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="Q10" t="n">
         <v>150</v>
@@ -1321,7 +1321,7 @@
       <c r="F11"/>
       <c r="G11"/>
       <c r="H11" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I11" t="n">
         <v>150</v>
@@ -1345,7 +1345,7 @@
         <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="Q11" t="n">
         <v>150</v>
@@ -1393,7 +1393,7 @@
       <c r="F12"/>
       <c r="G12"/>
       <c r="H12" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I12" t="n">
         <v>150</v>
@@ -1417,7 +1417,7 @@
         <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="Q12" t="n">
         <v>150</v>
@@ -1465,7 +1465,7 @@
       <c r="F13"/>
       <c r="G13"/>
       <c r="H13" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I13" t="n">
         <v>150</v>
@@ -1489,7 +1489,7 @@
         <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="Q13" t="n">
         <v>150</v>
@@ -1537,7 +1537,7 @@
       <c r="F14"/>
       <c r="G14"/>
       <c r="H14" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I14" t="n">
         <v>150</v>
@@ -1561,7 +1561,7 @@
         <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="Q14" t="n">
         <v>150</v>
@@ -1609,7 +1609,7 @@
       <c r="F15"/>
       <c r="G15"/>
       <c r="H15" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I15" t="n">
         <v>150</v>
@@ -1633,7 +1633,7 @@
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="Q15" t="n">
         <v>150</v>
@@ -1681,7 +1681,7 @@
       <c r="F16"/>
       <c r="G16"/>
       <c r="H16" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I16" t="n">
         <v>150</v>
@@ -1705,7 +1705,7 @@
         <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="Q16" t="n">
         <v>150</v>
@@ -1753,7 +1753,7 @@
       <c r="F17"/>
       <c r="G17"/>
       <c r="H17" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I17" t="n">
         <v>150</v>
@@ -1777,7 +1777,7 @@
         <v>1</v>
       </c>
       <c r="P17" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="Q17" t="n">
         <v>150</v>
@@ -1825,7 +1825,7 @@
       <c r="F18"/>
       <c r="G18"/>
       <c r="H18" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I18" t="n">
         <v>150</v>
@@ -1849,7 +1849,7 @@
         <v>1</v>
       </c>
       <c r="P18" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="Q18" t="n">
         <v>150</v>
@@ -1897,7 +1897,7 @@
       <c r="F19"/>
       <c r="G19"/>
       <c r="H19" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I19" t="n">
         <v>75</v>
@@ -1956,7 +1956,7 @@
         <v>1</v>
       </c>
       <c r="AE19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF19" t="n">
         <v>23</v>
@@ -1971,7 +1971,7 @@
         <v>1</v>
       </c>
       <c r="AJ19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK19" t="n">
         <v>23</v>
